--- a/data/trans_orig/DESPLA_MEDIO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/DESPLA_MEDIO-Edad-trans_orig.xlsx
@@ -740,12 +740,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4064</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -755,12 +755,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -775,12 +775,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2724</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -790,12 +790,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>3361</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -853,12 +853,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4064</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1227,12 +1227,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2724</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1242,12 +1242,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1535,12 +1535,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2847</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1550,12 +1550,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1570,12 +1570,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2693</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1605,12 +1605,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>2774</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1620,12 +1620,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2330,12 +2330,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1864</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2345,12 +2345,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2365,12 +2365,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>1267</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2380,12 +2380,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2400,12 +2400,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>1542</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2415,12 +2415,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -3125,12 +3125,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3472</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3160,12 +3160,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>1172</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -3175,12 +3175,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3195,12 +3195,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>2118</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -3210,12 +3210,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -3920,12 +3920,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>1647</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -3935,12 +3935,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3955,12 +3955,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>1062</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -3970,12 +3970,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3990,12 +3990,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -4005,12 +4005,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -4068,12 +4068,12 @@
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>1062</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4083,12 +4083,12 @@
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -4715,12 +4715,12 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -4730,12 +4730,12 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
@@ -4750,12 +4750,12 @@
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>938</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
@@ -4765,12 +4765,12 @@
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
@@ -4785,12 +4785,12 @@
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>1063</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
@@ -4800,12 +4800,12 @@
       </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -4863,12 +4863,12 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>938</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -4878,12 +4878,12 @@
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -4941,12 +4941,12 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -4956,12 +4956,12 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -5202,12 +5202,12 @@
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>938</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -5217,12 +5217,12 @@
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -5510,12 +5510,12 @@
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
@@ -5525,12 +5525,12 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>56,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
@@ -5580,12 +5580,12 @@
       </c>
       <c r="S46" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T46" s="2" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U46" s="2" t="inlineStr">
@@ -5595,12 +5595,12 @@
       </c>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W46" s="2" t="inlineStr">
         <is>
-          <t>56,93%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5623,12 +5623,12 @@
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
@@ -5638,12 +5638,12 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>56,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
@@ -5693,12 +5693,12 @@
       </c>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U47" s="2" t="inlineStr">
@@ -5708,12 +5708,12 @@
       </c>
       <c r="V47" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W47" s="2" t="inlineStr">
         <is>
-          <t>56,93%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5736,12 +5736,12 @@
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
@@ -5751,12 +5751,12 @@
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>56,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
@@ -5806,12 +5806,12 @@
       </c>
       <c r="S48" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T48" s="2" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U48" s="2" t="inlineStr">
@@ -5821,12 +5821,12 @@
       </c>
       <c r="V48" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W48" s="2" t="inlineStr">
         <is>
-          <t>56,93%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5962,12 +5962,12 @@
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
@@ -5977,12 +5977,12 @@
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>56,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr">
@@ -6032,12 +6032,12 @@
       </c>
       <c r="S50" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T50" s="2" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U50" s="2" t="inlineStr">
@@ -6047,12 +6047,12 @@
       </c>
       <c r="V50" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W50" s="2" t="inlineStr">
         <is>
-          <t>56,93%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -6305,12 +6305,12 @@
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>2504</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
@@ -6320,12 +6320,12 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J53" s="2" t="inlineStr">
@@ -6340,12 +6340,12 @@
       </c>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
         <is>
-          <t>1419</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N53" s="2" t="inlineStr">
@@ -6355,12 +6355,12 @@
       </c>
       <c r="O53" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q53" s="2" t="inlineStr">
@@ -6375,12 +6375,12 @@
       </c>
       <c r="S53" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T53" s="2" t="inlineStr">
         <is>
-          <t>1900</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U53" s="2" t="inlineStr">
@@ -6390,12 +6390,12 @@
       </c>
       <c r="V53" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W53" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -7456,12 +7456,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1196</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -7471,12 +7471,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -7491,12 +7491,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -7506,12 +7506,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -7526,12 +7526,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>1206</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -7541,12 +7541,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -8173,12 +8173,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1283</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -8188,12 +8188,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -8251,12 +8251,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1203</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -8266,12 +8266,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -8286,12 +8286,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1283</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -8301,12 +8301,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -8321,12 +8321,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>1247</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -8336,12 +8336,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -9081,12 +9081,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -9096,12 +9096,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -9763,12 +9763,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>1171</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -9778,12 +9778,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -9876,12 +9876,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1171</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -9891,12 +9891,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -10671,12 +10671,12 @@
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>1164</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -10686,12 +10686,12 @@
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -11431,12 +11431,12 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -11446,12 +11446,12 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -12600,12 +12600,12 @@
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
@@ -12615,12 +12615,12 @@
       </c>
       <c r="O50" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
@@ -13946,12 +13946,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -13961,12 +13961,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -13981,12 +13981,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -13996,12 +13996,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -14016,12 +14016,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -14031,12 +14031,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -14059,12 +14059,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -14074,12 +14074,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -14094,12 +14094,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -14109,12 +14109,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -14129,12 +14129,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -14144,12 +14144,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -14741,12 +14741,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -14776,12 +14776,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -14791,12 +14791,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -14811,12 +14811,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -14826,12 +14826,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -14854,12 +14854,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -14869,12 +14869,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -14889,12 +14889,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -14904,12 +14904,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -14924,12 +14924,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -14939,12 +14939,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -15536,12 +15536,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>849</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -15551,12 +15551,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -15571,12 +15571,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -15586,12 +15586,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -15606,12 +15606,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -15621,12 +15621,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -15649,12 +15649,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>849</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -15664,12 +15664,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -15684,12 +15684,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -15699,12 +15699,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -15719,12 +15719,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -15734,12 +15734,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -16331,12 +16331,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -16346,12 +16346,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -16366,12 +16366,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>752</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -16381,12 +16381,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -16401,12 +16401,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -16416,12 +16416,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -16444,12 +16444,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -16459,12 +16459,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -16479,12 +16479,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>752</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -16494,12 +16494,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -16514,12 +16514,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -16529,12 +16529,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -17126,12 +17126,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -17141,12 +17141,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -17161,12 +17161,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -17176,12 +17176,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -17196,12 +17196,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -17211,12 +17211,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -17239,12 +17239,12 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -17254,12 +17254,12 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -17274,12 +17274,12 @@
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -17289,12 +17289,12 @@
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -17309,12 +17309,12 @@
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -17324,12 +17324,12 @@
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -17921,12 +17921,12 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -17936,12 +17936,12 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
@@ -17956,12 +17956,12 @@
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
@@ -17971,12 +17971,12 @@
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
@@ -17991,12 +17991,12 @@
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
@@ -18006,12 +18006,12 @@
       </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -18034,12 +18034,12 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -18049,12 +18049,12 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -18069,12 +18069,12 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -18084,12 +18084,12 @@
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -18104,12 +18104,12 @@
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
@@ -18119,12 +18119,12 @@
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -18408,12 +18408,12 @@
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -18423,12 +18423,12 @@
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -18716,12 +18716,12 @@
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
@@ -18731,12 +18731,12 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
@@ -18751,12 +18751,12 @@
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
@@ -18766,12 +18766,12 @@
       </c>
       <c r="O46" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
@@ -18786,12 +18786,12 @@
       </c>
       <c r="S46" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T46" s="2" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U46" s="2" t="inlineStr">
@@ -18801,12 +18801,12 @@
       </c>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W46" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -18829,12 +18829,12 @@
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
@@ -18844,12 +18844,12 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
@@ -18864,12 +18864,12 @@
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -18879,12 +18879,12 @@
       </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
@@ -18899,12 +18899,12 @@
       </c>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U47" s="2" t="inlineStr">
@@ -18914,12 +18914,12 @@
       </c>
       <c r="V47" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W47" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -19511,12 +19511,12 @@
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
@@ -19526,12 +19526,12 @@
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J53" s="2" t="inlineStr">
@@ -19546,12 +19546,12 @@
       </c>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N53" s="2" t="inlineStr">
@@ -19561,12 +19561,12 @@
       </c>
       <c r="O53" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q53" s="2" t="inlineStr">
@@ -19581,12 +19581,12 @@
       </c>
       <c r="S53" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T53" s="2" t="inlineStr">
         <is>
-          <t>785</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U53" s="2" t="inlineStr">
@@ -19596,12 +19596,12 @@
       </c>
       <c r="V53" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W53" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -19624,12 +19624,12 @@
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
@@ -19639,12 +19639,12 @@
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J54" s="2" t="inlineStr">
@@ -19659,12 +19659,12 @@
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N54" s="2" t="inlineStr">
@@ -19674,12 +19674,12 @@
       </c>
       <c r="O54" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q54" s="2" t="inlineStr">
@@ -19694,12 +19694,12 @@
       </c>
       <c r="S54" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T54" s="2" t="inlineStr">
         <is>
-          <t>785</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U54" s="2" t="inlineStr">
@@ -19709,12 +19709,12 @@
       </c>
       <c r="V54" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W54" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/DESPLA_MEDIO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/DESPLA_MEDIO-Edad-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Medios de transporte a la actividad principal en Andalucia</t>
+          <t>Medios de transporte a la actividad principal en Andalucia (tasa de respuesta: 99,38%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7148,7 +7148,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Medios de transporte a la actividad principal en C.Valenciana</t>
+          <t>Medios de transporte a la actividad principal en C.Valenciana (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -13751,7 +13751,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Medios de transporte a la actividad principal en Barcelona</t>
+          <t>Medios de transporte a la actividad principal en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/DESPLA_MEDIO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/DESPLA_MEDIO-Edad-trans_orig.xlsx
@@ -893,7 +893,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1175</t>
+          <t>800</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>1005</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>1,02%</t>
         </is>
       </c>
     </row>
@@ -966,12 +966,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3347</t>
+          <t>3555</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20899</t>
+          <t>20558</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -981,12 +981,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>40,77%</t>
+          <t>40,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -1001,12 +1001,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5044</t>
+          <t>4541</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>19295</t>
+          <t>18715</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>40,96%</t>
+          <t>39,72%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1036,12 +1036,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>12370</t>
+          <t>11141</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>33466</t>
+          <t>32689</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>34,02%</t>
+          <t>33,23%</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16863</t>
+          <t>16785</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>39716</t>
+          <t>40310</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1094,12 +1094,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,9%</t>
+          <t>32,75%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>77,48%</t>
+          <t>78,64%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1114,12 +1114,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18018</t>
+          <t>17676</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>35445</t>
+          <t>35879</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1129,12 +1129,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>38,25%</t>
+          <t>37,52%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>75,24%</t>
+          <t>76,16%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>42114</t>
+          <t>42108</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>71469</t>
+          <t>69804</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>72,66%</t>
+          <t>70,96%</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10560</t>
+          <t>12984</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,6%</t>
+          <t>25,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>12825</t>
+          <t>10822</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>11,0%</t>
         </is>
       </c>
     </row>
@@ -1305,12 +1305,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3553</t>
+          <t>3668</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22325</t>
+          <t>22509</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1320,12 +1320,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>43,56%</t>
+          <t>43,91%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1340,12 +1340,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3298</t>
+          <t>3130</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18647</t>
+          <t>18729</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>39,58%</t>
+          <t>39,76%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1375,12 +1375,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>9193</t>
+          <t>9253</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>32761</t>
+          <t>32732</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1390,12 +1390,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>33,3%</t>
+          <t>33,27%</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>983</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>9940</t>
+          <t>9296</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1718,12 +1718,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>387</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>9016</t>
+          <t>9970</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1733,12 +1733,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,58%</t>
         </is>
       </c>
     </row>
@@ -1761,12 +1761,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7434</t>
+          <t>8171</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24992</t>
+          <t>26565</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1776,12 +1776,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>15,03%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1796,12 +1796,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5983</t>
+          <t>5905</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33396</t>
+          <t>33156</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1811,12 +1811,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1831,12 +1831,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>16337</t>
+          <t>16658</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>49761</t>
+          <t>49111</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1846,12 +1846,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>12,9%</t>
+          <t>12,73%</t>
         </is>
       </c>
     </row>
@@ -1874,12 +1874,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>123233</t>
+          <t>121108</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>149768</t>
+          <t>149512</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1889,12 +1889,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>69,74%</t>
+          <t>68,54%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>84,75%</t>
+          <t>84,61%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1909,12 +1909,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>33306</t>
+          <t>29487</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>125850</t>
+          <t>125789</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1924,12 +1924,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>14,1%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>60,17%</t>
+          <t>60,14%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1944,12 +1944,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>118645</t>
+          <t>125036</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>270111</t>
+          <t>272727</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>32,4%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>70,0%</t>
+          <t>70,68%</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12163</t>
+          <t>15444</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2022,12 +2022,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>737</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>150355</t>
+          <t>160104</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2037,12 +2037,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>71,88%</t>
+          <t>76,54%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2057,12 +2057,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>2992</t>
+          <t>2245</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>209597</t>
+          <t>207328</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2072,12 +2072,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>54,32%</t>
+          <t>53,73%</t>
         </is>
       </c>
     </row>
@@ -2100,12 +2100,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13138</t>
+          <t>13692</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>35155</t>
+          <t>36965</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2115,12 +2115,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>11592</t>
+          <t>11943</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>58850</t>
+          <t>59423</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2150,12 +2150,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>28,13%</t>
+          <t>28,41%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2170,12 +2170,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>31837</t>
+          <t>32736</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>80321</t>
+          <t>79942</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>20,72%</t>
         </is>
       </c>
     </row>
@@ -2448,7 +2448,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8084</t>
+          <t>9424</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4876</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2513,12 +2513,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>923</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>9462</t>
+          <t>10152</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,21%</t>
         </is>
       </c>
     </row>
@@ -2556,12 +2556,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>15238</t>
+          <t>15527</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>34498</t>
+          <t>34105</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2571,12 +2571,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2591,12 +2591,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>13577</t>
+          <t>14319</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>28935</t>
+          <t>29357</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -2606,12 +2606,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>14,05%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2626,12 +2626,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>32753</t>
+          <t>33533</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>56042</t>
+          <t>58305</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -2641,12 +2641,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>12,69%</t>
         </is>
       </c>
     </row>
@@ -2669,12 +2669,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>183994</t>
+          <t>184651</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>211202</t>
+          <t>211590</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2684,12 +2684,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>72,57%</t>
+          <t>72,83%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>83,3%</t>
+          <t>83,45%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2704,12 +2704,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>124115</t>
+          <t>124120</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>147118</t>
+          <t>146080</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>71,45%</t>
+          <t>70,94%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2739,12 +2739,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>315711</t>
+          <t>315435</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>350806</t>
+          <t>349886</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2754,12 +2754,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>68,71%</t>
+          <t>68,65%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>76,35%</t>
+          <t>76,15%</t>
         </is>
       </c>
     </row>
@@ -2782,12 +2782,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2246</t>
+          <t>2339</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>12207</t>
+          <t>11836</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2797,12 +2797,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2817,12 +2817,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>901</t>
+          <t>900</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>6303</t>
+          <t>7132</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2852,12 +2852,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>3913</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>14879</t>
+          <t>15532</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -2867,12 +2867,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,38%</t>
         </is>
       </c>
     </row>
@@ -2895,12 +2895,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>14613</t>
+          <t>14911</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>33144</t>
+          <t>33974</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2910,12 +2910,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2930,12 +2930,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>36521</t>
+          <t>36988</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>56873</t>
+          <t>56548</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2945,12 +2945,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>27,62%</t>
+          <t>27,46%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2965,12 +2965,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>56334</t>
+          <t>56545</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>83534</t>
+          <t>82809</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -2980,12 +2980,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>18,02%</t>
         </is>
       </c>
     </row>
@@ -3243,7 +3243,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>958</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>3438</t>
+          <t>3500</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4021</t>
+          <t>3949</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,51%</t>
         </is>
       </c>
     </row>
@@ -3351,12 +3351,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>4333</t>
+          <t>4176</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>39290</t>
+          <t>38378</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3366,12 +3366,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -3386,12 +3386,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>25675</t>
+          <t>25038</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>51947</t>
+          <t>51728</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3401,12 +3401,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>20,35%</t>
+          <t>20,27%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -3421,12 +3421,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>20272</t>
+          <t>21492</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>83551</t>
+          <t>82071</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3436,12 +3436,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>10,53%</t>
         </is>
       </c>
     </row>
@@ -3464,12 +3464,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>398482</t>
+          <t>399034</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>504208</t>
+          <t>505617</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3479,12 +3479,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>75,97%</t>
+          <t>76,07%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>96,12%</t>
+          <t>96,39%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3499,12 +3499,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>148872</t>
+          <t>148254</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>175643</t>
+          <t>175908</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3514,12 +3514,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>58,33%</t>
+          <t>58,09%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>68,82%</t>
+          <t>68,93%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3534,12 +3534,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>548221</t>
+          <t>548609</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>718800</t>
+          <t>707068</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3549,12 +3549,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>70,31%</t>
+          <t>70,36%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>92,18%</t>
+          <t>90,68%</t>
         </is>
       </c>
     </row>
@@ -3577,12 +3577,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>1096</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>16734</t>
+          <t>17415</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -3592,12 +3592,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3612,12 +3612,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>883</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>7237</t>
+          <t>7034</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -3627,42 +3627,42 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
+          <t>0,35%</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>2,76%</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>10094</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>3151</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>18447</t>
+        </is>
+      </c>
+      <c r="U29" s="2" t="inlineStr">
+        <is>
+          <t>1,29%</t>
+        </is>
+      </c>
+      <c r="V29" s="2" t="inlineStr">
+        <is>
           <t>0,4%</t>
-        </is>
-      </c>
-      <c r="P29" s="2" t="inlineStr">
-        <is>
-          <t>2,84%</t>
-        </is>
-      </c>
-      <c r="Q29" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>10094</t>
-        </is>
-      </c>
-      <c r="S29" s="2" t="inlineStr">
-        <is>
-          <t>2730</t>
-        </is>
-      </c>
-      <c r="T29" s="2" t="inlineStr">
-        <is>
-          <t>18494</t>
-        </is>
-      </c>
-      <c r="U29" s="2" t="inlineStr">
-        <is>
-          <t>1,29%</t>
-        </is>
-      </c>
-      <c r="V29" s="2" t="inlineStr">
-        <is>
-          <t>0,35%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
@@ -3690,12 +3690,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>12373</t>
+          <t>10350</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>77515</t>
+          <t>75961</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -3705,12 +3705,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3725,12 +3725,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>44626</t>
+          <t>43694</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>64648</t>
+          <t>64476</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -3740,12 +3740,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>17,49%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3760,12 +3760,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>33314</t>
+          <t>40976</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>138069</t>
+          <t>137763</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -3775,12 +3775,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>17,71%</t>
+          <t>17,67%</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>6370</t>
+          <t>6303</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>5423</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>1,77%</t>
         </is>
       </c>
     </row>
@@ -4146,12 +4146,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>7481</t>
+          <t>7366</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>19157</t>
+          <t>18571</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -4161,12 +4161,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4181,12 +4181,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>11419</t>
+          <t>10924</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>23122</t>
+          <t>21969</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4216,12 +4216,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>20682</t>
+          <t>20898</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>36767</t>
+          <t>37141</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -4231,12 +4231,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>12,11%</t>
         </is>
       </c>
     </row>
@@ -4259,12 +4259,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>118200</t>
+          <t>118224</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>139969</t>
+          <t>140550</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -4274,12 +4274,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>66,52%</t>
+          <t>66,54%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>78,78%</t>
+          <t>79,1%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4294,12 +4294,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>65302</t>
+          <t>65690</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>81969</t>
+          <t>81807</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -4309,12 +4309,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>50,65%</t>
+          <t>50,95%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>63,58%</t>
+          <t>63,45%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4329,12 +4329,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>188713</t>
+          <t>188283</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>217180</t>
+          <t>217150</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -4344,12 +4344,12 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>61,55%</t>
+          <t>61,41%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>70,83%</t>
+          <t>70,82%</t>
         </is>
       </c>
     </row>
@@ -4372,12 +4372,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>927</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>8582</t>
+          <t>7835</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>3536</t>
+          <t>3655</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -4427,7 +4427,7 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4442,12 +4442,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>977</t>
+          <t>1002</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>8164</t>
+          <t>8622</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -4457,12 +4457,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,81%</t>
         </is>
       </c>
     </row>
@@ -4485,12 +4485,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>21923</t>
+          <t>22083</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>41548</t>
+          <t>41573</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -4500,12 +4500,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>23,4%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4520,12 +4520,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>31175</t>
+          <t>30904</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>46450</t>
+          <t>46289</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -4535,12 +4535,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>24,18%</t>
+          <t>23,97%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>36,03%</t>
+          <t>35,9%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4555,12 +4555,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>57027</t>
+          <t>57433</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>82174</t>
+          <t>82188</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -4570,12 +4570,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>26,8%</t>
+          <t>26,81%</t>
         </is>
       </c>
     </row>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>3678</t>
+          <t>3965</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>31,63%</t>
+          <t>34,1%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>3131</t>
+          <t>3488</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
@@ -4918,7 +4918,7 @@
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>17,4%</t>
         </is>
       </c>
     </row>
@@ -4976,12 +4976,12 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>409</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>3537</t>
+          <t>3691</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
@@ -4991,12 +4991,12 @@
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>42,02%</t>
+          <t>43,85%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -5011,12 +5011,12 @@
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>414</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>4101</t>
+          <t>3910</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
@@ -5026,12 +5026,12 @@
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>19,5%</t>
         </is>
       </c>
     </row>
@@ -5054,12 +5054,12 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>2257</t>
+          <t>2568</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>7522</t>
+          <t>7769</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
@@ -5069,12 +5069,12 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>19,41%</t>
+          <t>22,08%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>64,68%</t>
+          <t>66,8%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -5089,12 +5089,12 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>1323</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>5217</t>
+          <t>5535</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -5104,12 +5104,12 @@
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>61,96%</t>
+          <t>65,74%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -5124,12 +5124,12 @@
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>4622</t>
+          <t>4580</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>11539</t>
+          <t>11275</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
@@ -5139,12 +5139,12 @@
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>23,05%</t>
+          <t>22,84%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>57,55%</t>
+          <t>56,23%</t>
         </is>
       </c>
     </row>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>2818</t>
+          <t>3057</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>24,23%</t>
+          <t>26,29%</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
@@ -5242,7 +5242,7 @@
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>3748</t>
+          <t>2997</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="W43" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>14,95%</t>
         </is>
       </c>
     </row>
@@ -5280,12 +5280,12 @@
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>2758</t>
+          <t>2746</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>7866</t>
+          <t>8197</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
@@ -5295,12 +5295,12 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>23,61%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>67,63%</t>
+          <t>70,48%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
@@ -5315,12 +5315,12 @@
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>1863</t>
+          <t>1656</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>5969</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
@@ -5330,12 +5330,12 @@
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>19,67%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>70,9%</t>
+          <t>68,3%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
@@ -5350,12 +5350,12 @@
       </c>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>6002</t>
+          <t>5993</t>
         </is>
       </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
-          <t>12850</t>
+          <t>12621</t>
         </is>
       </c>
       <c r="U44" s="2" t="inlineStr">
@@ -5365,12 +5365,12 @@
       </c>
       <c r="V44" s="2" t="inlineStr">
         <is>
-          <t>29,93%</t>
+          <t>29,89%</t>
         </is>
       </c>
       <c r="W44" s="2" t="inlineStr">
         <is>
-          <t>64,09%</t>
+          <t>62,95%</t>
         </is>
       </c>
     </row>
@@ -6418,12 +6418,12 @@
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>1633</t>
+          <t>1758</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>14309</t>
+          <t>12372</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
@@ -6433,12 +6433,12 @@
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="J54" s="2" t="inlineStr">
@@ -6453,12 +6453,12 @@
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>1550</t>
+          <t>1386</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
         <is>
-          <t>11136</t>
+          <t>11010</t>
         </is>
       </c>
       <c r="N54" s="2" t="inlineStr">
@@ -6468,12 +6468,12 @@
       </c>
       <c r="O54" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="Q54" s="2" t="inlineStr">
@@ -6488,12 +6488,12 @@
       </c>
       <c r="S54" s="2" t="inlineStr">
         <is>
-          <t>4473</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="T54" s="2" t="inlineStr">
         <is>
-          <t>18715</t>
+          <t>19087</t>
         </is>
       </c>
       <c r="U54" s="2" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="W54" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,93%</t>
         </is>
       </c>
     </row>
@@ -6531,12 +6531,12 @@
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>40170</t>
+          <t>39931</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>107083</t>
+          <t>105398</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
@@ -6546,12 +6546,12 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="I55" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="J55" s="2" t="inlineStr">
@@ -6566,12 +6566,12 @@
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>77112</t>
+          <t>78408</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
         <is>
-          <t>128270</t>
+          <t>125284</t>
         </is>
       </c>
       <c r="N55" s="2" t="inlineStr">
@@ -6581,12 +6581,12 @@
       </c>
       <c r="O55" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr">
@@ -6601,12 +6601,12 @@
       </c>
       <c r="S55" s="2" t="inlineStr">
         <is>
-          <t>120625</t>
+          <t>121356</t>
         </is>
       </c>
       <c r="T55" s="2" t="inlineStr">
         <is>
-          <t>218745</t>
+          <t>216710</t>
         </is>
       </c>
       <c r="U55" s="2" t="inlineStr">
@@ -6616,12 +6616,12 @@
       </c>
       <c r="V55" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="W55" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>10,56%</t>
         </is>
       </c>
     </row>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>889818</t>
+          <t>893799</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>1066934</t>
+          <t>1065950</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
@@ -6659,12 +6659,12 @@
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>74,34%</t>
+          <t>74,67%</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>89,14%</t>
+          <t>89,05%</t>
         </is>
       </c>
       <c r="J56" s="2" t="inlineStr">
@@ -6679,12 +6679,12 @@
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>336900</t>
+          <t>357734</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
         <is>
-          <t>535215</t>
+          <t>533116</t>
         </is>
       </c>
       <c r="N56" s="2" t="inlineStr">
@@ -6694,12 +6694,12 @@
       </c>
       <c r="O56" s="2" t="inlineStr">
         <is>
-          <t>39,41%</t>
+          <t>41,85%</t>
         </is>
       </c>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>62,62%</t>
+          <t>62,37%</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
@@ -6714,12 +6714,12 @@
       </c>
       <c r="S56" s="2" t="inlineStr">
         <is>
-          <t>1304916</t>
+          <t>1302695</t>
         </is>
       </c>
       <c r="T56" s="2" t="inlineStr">
         <is>
-          <t>1640983</t>
+          <t>1635600</t>
         </is>
       </c>
       <c r="U56" s="2" t="inlineStr">
@@ -6729,12 +6729,12 @@
       </c>
       <c r="V56" s="2" t="inlineStr">
         <is>
-          <t>63,6%</t>
+          <t>63,49%</t>
         </is>
       </c>
       <c r="W56" s="2" t="inlineStr">
         <is>
-          <t>79,98%</t>
+          <t>79,72%</t>
         </is>
       </c>
     </row>
@@ -6757,12 +6757,12 @@
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>9274</t>
+          <t>9712</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>35184</t>
+          <t>34714</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
@@ -6772,12 +6772,12 @@
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="J57" s="2" t="inlineStr">
@@ -6792,12 +6792,12 @@
       </c>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>6727</t>
+          <t>6812</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
         <is>
-          <t>306691</t>
+          <t>288503</t>
         </is>
       </c>
       <c r="N57" s="2" t="inlineStr">
@@ -6807,12 +6807,12 @@
       </c>
       <c r="O57" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="P57" s="2" t="inlineStr">
         <is>
-          <t>35,88%</t>
+          <t>33,75%</t>
         </is>
       </c>
       <c r="Q57" s="2" t="inlineStr">
@@ -6827,12 +6827,12 @@
       </c>
       <c r="S57" s="2" t="inlineStr">
         <is>
-          <t>24643</t>
+          <t>25485</t>
         </is>
       </c>
       <c r="T57" s="2" t="inlineStr">
         <is>
-          <t>389332</t>
+          <t>336722</t>
         </is>
       </c>
       <c r="U57" s="2" t="inlineStr">
@@ -6842,12 +6842,12 @@
       </c>
       <c r="V57" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="W57" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>16,41%</t>
         </is>
       </c>
     </row>
@@ -6870,12 +6870,12 @@
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>68606</t>
+          <t>69248</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>174070</t>
+          <t>171664</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
@@ -6885,12 +6885,12 @@
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="J58" s="2" t="inlineStr">
@@ -6905,12 +6905,12 @@
       </c>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>136731</t>
+          <t>139317</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
         <is>
-          <t>215293</t>
+          <t>214725</t>
         </is>
       </c>
       <c r="N58" s="2" t="inlineStr">
@@ -6920,12 +6920,12 @@
       </c>
       <c r="O58" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="P58" s="2" t="inlineStr">
         <is>
-          <t>25,19%</t>
+          <t>25,12%</t>
         </is>
       </c>
       <c r="Q58" s="2" t="inlineStr">
@@ -6940,12 +6940,12 @@
       </c>
       <c r="S58" s="2" t="inlineStr">
         <is>
-          <t>210187</t>
+          <t>206658</t>
         </is>
       </c>
       <c r="T58" s="2" t="inlineStr">
         <is>
-          <t>379410</t>
+          <t>377118</t>
         </is>
       </c>
       <c r="U58" s="2" t="inlineStr">
@@ -6955,12 +6955,12 @@
       </c>
       <c r="V58" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="W58" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>18,38%</t>
         </is>
       </c>
     </row>
@@ -14172,12 +14172,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14967</t>
+          <t>15670</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25106</t>
+          <t>25491</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -14187,12 +14187,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>25,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>40,24%</t>
+          <t>40,86%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -14207,12 +14207,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>28184</t>
+          <t>28616</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>38616</t>
+          <t>39422</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -14222,12 +14222,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>47,82%</t>
+          <t>48,56%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>65,53%</t>
+          <t>66,89%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -14242,12 +14242,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>46242</t>
+          <t>46672</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>61349</t>
+          <t>62123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -14257,12 +14257,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>38,12%</t>
+          <t>38,47%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>50,57%</t>
+          <t>51,21%</t>
         </is>
       </c>
     </row>
@@ -14285,12 +14285,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11789</t>
+          <t>11299</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21446</t>
+          <t>21054</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -14300,12 +14300,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,38%</t>
+          <t>33,75%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -14320,12 +14320,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5548</t>
+          <t>5251</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12264</t>
+          <t>12230</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -14335,12 +14335,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>20,75%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -14355,12 +14355,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>18581</t>
+          <t>18243</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>30816</t>
+          <t>31006</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -14370,12 +14370,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>15,04%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>25,56%</t>
         </is>
       </c>
     </row>
@@ -14398,12 +14398,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5723</t>
+          <t>5467</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12925</t>
+          <t>13008</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -14413,12 +14413,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>20,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -14433,12 +14433,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2222</t>
+          <t>2156</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>8686</t>
+          <t>8809</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -14448,12 +14448,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>14,95%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -14468,12 +14468,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>9267</t>
+          <t>9216</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>18514</t>
+          <t>18837</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -14483,12 +14483,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>15,53%</t>
         </is>
       </c>
     </row>
@@ -14511,12 +14511,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13177</t>
+          <t>13063</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23630</t>
+          <t>23615</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -14526,12 +14526,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>20,94%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>37,88%</t>
+          <t>37,85%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -14546,12 +14546,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8625</t>
+          <t>8869</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17452</t>
+          <t>16906</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -14561,12 +14561,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>29,61%</t>
+          <t>28,69%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -14581,12 +14581,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>23469</t>
+          <t>23595</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>37169</t>
+          <t>37566</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -14596,12 +14596,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>19,45%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>30,64%</t>
+          <t>30,97%</t>
         </is>
       </c>
     </row>
@@ -14967,12 +14967,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31598</t>
+          <t>31262</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>46787</t>
+          <t>46157</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -14982,12 +14982,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,83%</t>
+          <t>26,55%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>39,73%</t>
+          <t>39,2%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -15002,12 +15002,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>43945</t>
+          <t>42829</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>59694</t>
+          <t>59966</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -15017,12 +15017,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>35,5%</t>
+          <t>34,59%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>48,22%</t>
+          <t>48,44%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -15037,12 +15037,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>78766</t>
+          <t>78380</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>101552</t>
+          <t>101473</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -15052,12 +15052,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>32,61%</t>
+          <t>32,45%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>42,04%</t>
+          <t>42,01%</t>
         </is>
       </c>
     </row>
@@ -15080,12 +15080,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>34736</t>
+          <t>34518</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>48925</t>
+          <t>49127</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -15095,12 +15095,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>29,5%</t>
+          <t>29,31%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>41,55%</t>
+          <t>41,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -15115,12 +15115,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>20444</t>
+          <t>20942</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>32969</t>
+          <t>33537</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -15130,12 +15130,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>16,92%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>26,63%</t>
+          <t>27,09%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -15150,12 +15150,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>59148</t>
+          <t>58406</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>78459</t>
+          <t>79055</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -15165,12 +15165,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>24,18%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>32,48%</t>
+          <t>32,73%</t>
         </is>
       </c>
     </row>
@@ -15193,12 +15193,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6179</t>
+          <t>6104</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14788</t>
+          <t>13925</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -15208,12 +15208,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -15228,12 +15228,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6714</t>
+          <t>7134</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18301</t>
+          <t>19013</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -15243,12 +15243,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>15,36%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -15263,12 +15263,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>15415</t>
+          <t>14989</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>30107</t>
+          <t>30161</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -15278,12 +15278,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>12,49%</t>
         </is>
       </c>
     </row>
@@ -15306,12 +15306,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>21312</t>
+          <t>21753</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>35157</t>
+          <t>35100</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -15321,12 +15321,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>29,86%</t>
+          <t>29,81%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -15341,12 +15341,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>27175</t>
+          <t>26699</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>41555</t>
+          <t>40943</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -15356,12 +15356,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>33,57%</t>
+          <t>33,07%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -15376,12 +15376,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>52433</t>
+          <t>52441</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>71314</t>
+          <t>72151</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -15396,7 +15396,7 @@
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>29,87%</t>
         </is>
       </c>
     </row>
@@ -15762,12 +15762,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>24911</t>
+          <t>24122</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>41039</t>
+          <t>40341</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -15777,12 +15777,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>17,71%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>30,14%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -15797,12 +15797,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>37397</t>
+          <t>37927</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>54875</t>
+          <t>54060</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -15812,12 +15812,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>29,14%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>42,17%</t>
+          <t>41,54%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -15832,12 +15832,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>66088</t>
+          <t>65562</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>90544</t>
+          <t>89562</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -15847,12 +15847,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>24,82%</t>
+          <t>24,62%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>34,0%</t>
+          <t>33,63%</t>
         </is>
       </c>
     </row>
@@ -15875,12 +15875,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>49873</t>
+          <t>49449</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>67703</t>
+          <t>67447</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -15890,12 +15890,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>36,63%</t>
+          <t>36,31%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>49,72%</t>
+          <t>49,53%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -15910,12 +15910,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>24245</t>
+          <t>24498</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>38505</t>
+          <t>38035</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -15925,47 +15925,47 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
+          <t>29,23%</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>89845</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>78796</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>101651</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>33,74%</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
           <t>29,59%</t>
         </is>
       </c>
-      <c r="Q21" s="2" t="inlineStr">
-        <is>
-          <t>214</t>
-        </is>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>89845</t>
-        </is>
-      </c>
-      <c r="S21" s="2" t="inlineStr">
-        <is>
-          <t>77248</t>
-        </is>
-      </c>
-      <c r="T21" s="2" t="inlineStr">
-        <is>
-          <t>100800</t>
-        </is>
-      </c>
-      <c r="U21" s="2" t="inlineStr">
-        <is>
-          <t>33,74%</t>
-        </is>
-      </c>
-      <c r="V21" s="2" t="inlineStr">
-        <is>
-          <t>29,01%</t>
-        </is>
-      </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>37,85%</t>
+          <t>38,17%</t>
         </is>
       </c>
     </row>
@@ -15988,12 +15988,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>10595</t>
+          <t>10604</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>28253</t>
+          <t>27998</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -16003,12 +16003,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -16023,12 +16023,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>5215</t>
+          <t>4965</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>12489</t>
+          <t>12654</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -16038,12 +16038,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -16058,12 +16058,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>17237</t>
+          <t>18291</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>36734</t>
+          <t>38007</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -16073,12 +16073,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>14,27%</t>
         </is>
       </c>
     </row>
@@ -16101,12 +16101,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>21997</t>
+          <t>22233</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>36033</t>
+          <t>36370</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -16116,12 +16116,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>26,46%</t>
+          <t>26,71%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -16136,12 +16136,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>37950</t>
+          <t>36927</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>53649</t>
+          <t>53657</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -16151,12 +16151,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>29,16%</t>
+          <t>28,37%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>41,22%</t>
+          <t>41,23%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -16171,12 +16171,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>63016</t>
+          <t>63588</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>85121</t>
+          <t>85115</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -16186,7 +16186,7 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>23,88%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
@@ -16557,12 +16557,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>18263</t>
+          <t>18589</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>31524</t>
+          <t>31482</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -16572,12 +16572,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>27,36%</t>
+          <t>27,32%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -16592,12 +16592,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>39182</t>
+          <t>39647</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>54550</t>
+          <t>54695</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -16607,12 +16607,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>34,47%</t>
+          <t>34,87%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>47,98%</t>
+          <t>48,11%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -16627,12 +16627,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>61679</t>
+          <t>60498</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>81578</t>
+          <t>81027</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -16642,12 +16642,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>26,94%</t>
+          <t>26,43%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>35,64%</t>
+          <t>35,4%</t>
         </is>
       </c>
     </row>
@@ -16670,12 +16670,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>35691</t>
+          <t>35950</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>51613</t>
+          <t>51521</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -16685,12 +16685,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>30,97%</t>
+          <t>31,2%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>44,79%</t>
+          <t>44,71%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -16705,12 +16705,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>17911</t>
+          <t>17976</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>28966</t>
+          <t>28927</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -16720,12 +16720,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>25,48%</t>
+          <t>25,44%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -16740,12 +16740,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>57479</t>
+          <t>57600</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>76408</t>
+          <t>77177</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -16755,12 +16755,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>25,11%</t>
+          <t>25,16%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>33,38%</t>
+          <t>33,71%</t>
         </is>
       </c>
     </row>
@@ -16783,12 +16783,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>7915</t>
+          <t>7466</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>17078</t>
+          <t>16872</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -16798,12 +16798,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -16818,12 +16818,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>4195</t>
+          <t>4120</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>11032</t>
+          <t>11502</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -16833,12 +16833,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -16853,12 +16853,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>13644</t>
+          <t>13562</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>24905</t>
+          <t>25260</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -16868,12 +16868,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>11,03%</t>
         </is>
       </c>
     </row>
@@ -16896,12 +16896,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>28464</t>
+          <t>28559</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>46968</t>
+          <t>46152</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -16911,12 +16911,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>24,7%</t>
+          <t>24,78%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>40,76%</t>
+          <t>40,05%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -16931,12 +16931,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>30360</t>
+          <t>30782</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>44108</t>
+          <t>44265</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -16946,12 +16946,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>26,71%</t>
+          <t>27,08%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>38,8%</t>
+          <t>38,94%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -16966,12 +16966,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>61588</t>
+          <t>61943</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>83864</t>
+          <t>84854</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -16981,12 +16981,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>26,9%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>36,64%</t>
+          <t>37,07%</t>
         </is>
       </c>
     </row>
@@ -17352,12 +17352,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>13349</t>
+          <t>13837</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>26585</t>
+          <t>27416</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -17367,12 +17367,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>27,31%</t>
+          <t>28,16%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -17387,12 +17387,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>30756</t>
+          <t>30977</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>44806</t>
+          <t>44612</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -17402,12 +17402,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>28,11%</t>
+          <t>28,32%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>40,96%</t>
+          <t>40,78%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -17422,12 +17422,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>47438</t>
+          <t>47733</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>66958</t>
+          <t>67849</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -17437,12 +17437,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>23,09%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>32,39%</t>
+          <t>32,82%</t>
         </is>
       </c>
     </row>
@@ -17465,12 +17465,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>30541</t>
+          <t>30623</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>45792</t>
+          <t>45318</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -17480,12 +17480,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>31,37%</t>
+          <t>31,46%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>47,04%</t>
+          <t>46,55%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -17500,12 +17500,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>18789</t>
+          <t>18195</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>29965</t>
+          <t>30662</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -17515,12 +17515,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>27,39%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -17535,12 +17535,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>51272</t>
+          <t>52221</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>70879</t>
+          <t>71052</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -17550,12 +17550,12 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>24,8%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>34,28%</t>
+          <t>34,37%</t>
         </is>
       </c>
     </row>
@@ -17578,12 +17578,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>3223</t>
+          <t>3199</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>9986</t>
+          <t>10067</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -17593,12 +17593,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -17613,12 +17613,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>1389</t>
+          <t>1482</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>6922</t>
+          <t>7146</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -17628,12 +17628,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -17648,12 +17648,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>5642</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>13807</t>
+          <t>14101</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -17663,12 +17663,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>6,82%</t>
         </is>
       </c>
     </row>
@@ -17691,12 +17691,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>27376</t>
+          <t>26909</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>43395</t>
+          <t>43056</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -17706,12 +17706,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>28,12%</t>
+          <t>27,64%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>44,58%</t>
+          <t>44,23%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -17726,12 +17726,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>37115</t>
+          <t>36918</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>51425</t>
+          <t>51971</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -17741,12 +17741,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>33,93%</t>
+          <t>33,75%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>47,01%</t>
+          <t>47,51%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -17761,12 +17761,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>68627</t>
+          <t>68437</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>89460</t>
+          <t>89598</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -17776,12 +17776,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>33,19%</t>
+          <t>33,1%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>43,27%</t>
+          <t>43,34%</t>
         </is>
       </c>
     </row>
@@ -18147,12 +18147,12 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>9936</t>
+          <t>9703</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>19298</t>
+          <t>18712</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -18162,12 +18162,12 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>28,0%</t>
+          <t>27,15%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -18182,12 +18182,12 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>18227</t>
+          <t>18744</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>29614</t>
+          <t>29410</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
@@ -18197,12 +18197,12 @@
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>22,66%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>35,8%</t>
+          <t>35,56%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -18217,12 +18217,12 @@
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>30489</t>
+          <t>30504</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>44889</t>
+          <t>44380</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
@@ -18232,12 +18232,12 @@
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>20,12%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>29,61%</t>
+          <t>29,27%</t>
         </is>
       </c>
     </row>
@@ -18260,12 +18260,12 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>16297</t>
+          <t>15522</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>28106</t>
+          <t>28218</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
@@ -18275,12 +18275,12 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>23,65%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>40,79%</t>
+          <t>40,95%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -18295,12 +18295,12 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>8665</t>
+          <t>8552</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>17238</t>
+          <t>17207</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -18310,12 +18310,12 @@
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>20,8%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -18330,12 +18330,12 @@
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>27168</t>
+          <t>27030</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>43063</t>
+          <t>41568</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
@@ -18345,12 +18345,12 @@
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>17,92%</t>
+          <t>17,83%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>28,4%</t>
+          <t>27,42%</t>
         </is>
       </c>
     </row>
@@ -18373,12 +18373,12 @@
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>1691</t>
+          <t>1868</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>6994</t>
+          <t>6881</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -18388,12 +18388,12 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
@@ -18443,12 +18443,12 @@
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>1697</t>
+          <t>1710</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>6912</t>
+          <t>7180</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
@@ -18458,12 +18458,12 @@
       </c>
       <c r="V43" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="W43" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,74%</t>
         </is>
       </c>
     </row>
@@ -18486,12 +18486,12 @@
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>24328</t>
+          <t>24113</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>36901</t>
+          <t>37599</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
@@ -18501,12 +18501,12 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>35,3%</t>
+          <t>34,99%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>53,55%</t>
+          <t>54,56%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
@@ -18521,12 +18521,12 @@
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>40180</t>
+          <t>40196</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>52685</t>
+          <t>52766</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
@@ -18536,12 +18536,12 @@
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>48,58%</t>
+          <t>48,6%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>63,7%</t>
+          <t>63,79%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
@@ -18556,12 +18556,12 @@
       </c>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>68018</t>
+          <t>68394</t>
         </is>
       </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
-          <t>86381</t>
+          <t>85826</t>
         </is>
       </c>
       <c r="U44" s="2" t="inlineStr">
@@ -18571,12 +18571,12 @@
       </c>
       <c r="V44" s="2" t="inlineStr">
         <is>
-          <t>44,86%</t>
+          <t>45,11%</t>
         </is>
       </c>
       <c r="W44" s="2" t="inlineStr">
         <is>
-          <t>56,97%</t>
+          <t>56,6%</t>
         </is>
       </c>
     </row>
@@ -18942,12 +18942,12 @@
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>7680</t>
+          <t>7858</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>16054</t>
+          <t>16272</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
@@ -18957,12 +18957,12 @@
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>12,69%</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>25,92%</t>
+          <t>26,28%</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
@@ -18977,12 +18977,12 @@
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>10255</t>
+          <t>10256</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>20800</t>
+          <t>20781</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
@@ -18997,7 +18997,7 @@
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>21,28%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
@@ -19012,12 +19012,12 @@
       </c>
       <c r="S48" s="2" t="inlineStr">
         <is>
-          <t>20984</t>
+          <t>20081</t>
         </is>
       </c>
       <c r="T48" s="2" t="inlineStr">
         <is>
-          <t>34461</t>
+          <t>33130</t>
         </is>
       </c>
       <c r="U48" s="2" t="inlineStr">
@@ -19027,12 +19027,12 @@
       </c>
       <c r="V48" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="W48" s="2" t="inlineStr">
         <is>
-          <t>21,59%</t>
+          <t>20,76%</t>
         </is>
       </c>
     </row>
@@ -19055,12 +19055,12 @@
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>7887</t>
+          <t>7779</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>15575</t>
+          <t>15818</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
@@ -19070,12 +19070,12 @@
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>12,56%</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>25,15%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr">
@@ -19090,12 +19090,12 @@
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>8424</t>
+          <t>8542</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>18752</t>
+          <t>17955</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
@@ -19105,12 +19105,12 @@
       </c>
       <c r="O49" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>19,2%</t>
+          <t>18,38%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
@@ -19125,12 +19125,12 @@
       </c>
       <c r="S49" s="2" t="inlineStr">
         <is>
-          <t>18123</t>
+          <t>18010</t>
         </is>
       </c>
       <c r="T49" s="2" t="inlineStr">
         <is>
-          <t>30194</t>
+          <t>31682</t>
         </is>
       </c>
       <c r="U49" s="2" t="inlineStr">
@@ -19140,12 +19140,12 @@
       </c>
       <c r="V49" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="W49" s="2" t="inlineStr">
         <is>
-          <t>18,92%</t>
+          <t>19,85%</t>
         </is>
       </c>
     </row>
@@ -19168,12 +19168,12 @@
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>700</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>4810</t>
+          <t>4899</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
@@ -19183,12 +19183,12 @@
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr">
@@ -19203,12 +19203,12 @@
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>2139</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>12564</t>
+          <t>14089</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
@@ -19218,12 +19218,12 @@
       </c>
       <c r="O50" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>14,42%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
@@ -19238,12 +19238,12 @@
       </c>
       <c r="S50" s="2" t="inlineStr">
         <is>
-          <t>3731</t>
+          <t>3743</t>
         </is>
       </c>
       <c r="T50" s="2" t="inlineStr">
         <is>
-          <t>15269</t>
+          <t>14389</t>
         </is>
       </c>
       <c r="U50" s="2" t="inlineStr">
@@ -19253,12 +19253,12 @@
       </c>
       <c r="V50" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="W50" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>9,02%</t>
         </is>
       </c>
     </row>
@@ -19281,12 +19281,12 @@
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>31844</t>
+          <t>31580</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>41810</t>
+          <t>42104</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
@@ -19296,12 +19296,12 @@
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>51,42%</t>
+          <t>50,99%</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>67,51%</t>
+          <t>67,99%</t>
         </is>
       </c>
       <c r="J51" s="2" t="inlineStr">
@@ -19316,12 +19316,12 @@
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>56991</t>
+          <t>56964</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>71487</t>
+          <t>71589</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
@@ -19331,12 +19331,12 @@
       </c>
       <c r="O51" s="2" t="inlineStr">
         <is>
-          <t>58,35%</t>
+          <t>58,32%</t>
         </is>
       </c>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>73,19%</t>
+          <t>73,3%</t>
         </is>
       </c>
       <c r="Q51" s="2" t="inlineStr">
@@ -19351,12 +19351,12 @@
       </c>
       <c r="S51" s="2" t="inlineStr">
         <is>
-          <t>92459</t>
+          <t>92642</t>
         </is>
       </c>
       <c r="T51" s="2" t="inlineStr">
         <is>
-          <t>111206</t>
+          <t>109638</t>
         </is>
       </c>
       <c r="U51" s="2" t="inlineStr">
@@ -19366,12 +19366,12 @@
       </c>
       <c r="V51" s="2" t="inlineStr">
         <is>
-          <t>57,93%</t>
+          <t>58,05%</t>
         </is>
       </c>
       <c r="W51" s="2" t="inlineStr">
         <is>
-          <t>69,68%</t>
+          <t>68,7%</t>
         </is>
       </c>
     </row>
@@ -19737,12 +19737,12 @@
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>143373</t>
+          <t>143301</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>177419</t>
+          <t>176353</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
@@ -19752,12 +19752,12 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>21,72%</t>
         </is>
       </c>
       <c r="I55" s="2" t="inlineStr">
         <is>
-          <t>26,89%</t>
+          <t>26,73%</t>
         </is>
       </c>
       <c r="J55" s="2" t="inlineStr">
@@ -19772,12 +19772,12 @@
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>235223</t>
+          <t>235144</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
         <is>
-          <t>272998</t>
+          <t>272014</t>
         </is>
       </c>
       <c r="N55" s="2" t="inlineStr">
@@ -19787,12 +19787,12 @@
       </c>
       <c r="O55" s="2" t="inlineStr">
         <is>
-          <t>32,84%</t>
+          <t>32,83%</t>
         </is>
       </c>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>38,11%</t>
+          <t>37,97%</t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr">
@@ -19807,12 +19807,12 @@
       </c>
       <c r="S55" s="2" t="inlineStr">
         <is>
-          <t>388749</t>
+          <t>386990</t>
         </is>
       </c>
       <c r="T55" s="2" t="inlineStr">
         <is>
-          <t>439895</t>
+          <t>437131</t>
         </is>
       </c>
       <c r="U55" s="2" t="inlineStr">
@@ -19822,12 +19822,12 @@
       </c>
       <c r="V55" s="2" t="inlineStr">
         <is>
-          <t>28,25%</t>
+          <t>28,12%</t>
         </is>
       </c>
       <c r="W55" s="2" t="inlineStr">
         <is>
-          <t>31,97%</t>
+          <t>31,77%</t>
         </is>
       </c>
     </row>
@@ -19850,12 +19850,12 @@
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>212852</t>
+          <t>210510</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>249680</t>
+          <t>247382</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
@@ -19865,12 +19865,12 @@
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>31,91%</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>37,85%</t>
+          <t>37,5%</t>
         </is>
       </c>
       <c r="J56" s="2" t="inlineStr">
@@ -19885,12 +19885,12 @@
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>123109</t>
+          <t>123395</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
         <is>
-          <t>152295</t>
+          <t>152519</t>
         </is>
       </c>
       <c r="N56" s="2" t="inlineStr">
@@ -19900,12 +19900,12 @@
       </c>
       <c r="O56" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>21,29%</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
@@ -19920,12 +19920,12 @@
       </c>
       <c r="S56" s="2" t="inlineStr">
         <is>
-          <t>346659</t>
+          <t>344690</t>
         </is>
       </c>
       <c r="T56" s="2" t="inlineStr">
         <is>
-          <t>393571</t>
+          <t>392792</t>
         </is>
       </c>
       <c r="U56" s="2" t="inlineStr">
@@ -19935,12 +19935,12 @@
       </c>
       <c r="V56" s="2" t="inlineStr">
         <is>
-          <t>25,19%</t>
+          <t>25,05%</t>
         </is>
       </c>
       <c r="W56" s="2" t="inlineStr">
         <is>
-          <t>28,6%</t>
+          <t>28,54%</t>
         </is>
       </c>
     </row>
@@ -19963,12 +19963,12 @@
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>48070</t>
+          <t>48167</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>73519</t>
+          <t>72769</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
@@ -19978,12 +19978,12 @@
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="J57" s="2" t="inlineStr">
@@ -19998,12 +19998,12 @@
       </c>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>31543</t>
+          <t>31268</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
         <is>
-          <t>51588</t>
+          <t>52521</t>
         </is>
       </c>
       <c r="N57" s="2" t="inlineStr">
@@ -20013,12 +20013,12 @@
       </c>
       <c r="O57" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="P57" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="Q57" s="2" t="inlineStr">
@@ -20033,12 +20033,12 @@
       </c>
       <c r="S57" s="2" t="inlineStr">
         <is>
-          <t>83484</t>
+          <t>84662</t>
         </is>
       </c>
       <c r="T57" s="2" t="inlineStr">
         <is>
-          <t>114931</t>
+          <t>114709</t>
         </is>
       </c>
       <c r="U57" s="2" t="inlineStr">
@@ -20048,12 +20048,12 @@
       </c>
       <c r="V57" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="W57" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>8,34%</t>
         </is>
       </c>
     </row>
@@ -20076,12 +20076,12 @@
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>194782</t>
+          <t>194413</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>231506</t>
+          <t>232647</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
@@ -20091,12 +20091,12 @@
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>29,47%</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
-          <t>35,09%</t>
+          <t>35,26%</t>
         </is>
       </c>
       <c r="J58" s="2" t="inlineStr">
@@ -20111,12 +20111,12 @@
       </c>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>265746</t>
+          <t>265182</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
         <is>
-          <t>304660</t>
+          <t>302846</t>
         </is>
       </c>
       <c r="N58" s="2" t="inlineStr">
@@ -20126,12 +20126,12 @@
       </c>
       <c r="O58" s="2" t="inlineStr">
         <is>
-          <t>37,1%</t>
+          <t>37,02%</t>
         </is>
       </c>
       <c r="P58" s="2" t="inlineStr">
         <is>
-          <t>42,53%</t>
+          <t>42,28%</t>
         </is>
       </c>
       <c r="Q58" s="2" t="inlineStr">
@@ -20146,12 +20146,12 @@
       </c>
       <c r="S58" s="2" t="inlineStr">
         <is>
-          <t>469427</t>
+          <t>470754</t>
         </is>
       </c>
       <c r="T58" s="2" t="inlineStr">
         <is>
-          <t>524109</t>
+          <t>525019</t>
         </is>
       </c>
       <c r="U58" s="2" t="inlineStr">
@@ -20161,12 +20161,12 @@
       </c>
       <c r="V58" s="2" t="inlineStr">
         <is>
-          <t>34,11%</t>
+          <t>34,21%</t>
         </is>
       </c>
       <c r="W58" s="2" t="inlineStr">
         <is>
-          <t>38,09%</t>
+          <t>38,15%</t>
         </is>
       </c>
     </row>
